--- a/test/data/dlt645-meter-test-sheet.xlsx
+++ b/test/data/dlt645-meter-test-sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>MeterId</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Frequency</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
   <si>
     <t>100023669245</t>
@@ -237,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +250,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +599,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,16 +623,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -626,99 +641,105 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1246,18 +1267,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1270,145 +1291,178 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
         <v>100</v>
       </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
         <v>100</v>
       </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
         <v>100</v>
       </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
         <v>100</v>
       </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2">
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
         <v>100</v>
       </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2">
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3">
         <v>100</v>
       </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2">
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
         <v>100</v>
       </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2">
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3">
         <v>100</v>
       </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2">
-        <v>100</v>
+      <c r="E11" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
